--- a/fileserv/SvtInfo.xlsx
+++ b/fileserv/SvtInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AC6079-B6A2-4A2D-964A-D249F553FE0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9FA31F-6D43-483E-9080-4F20EC74A2F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3210" windowWidth="21600" windowHeight="11385" xr2:uid="{B20A98B6-2029-4FA2-9F86-4EAF312F5030}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B20A98B6-2029-4FA2-9F86-4EAF312F5030}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -338,7 +338,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -354,7 +354,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -363,29 +369,26 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,7 +723,7 @@
   <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:G16"/>
+      <selection activeCell="C7" activeCellId="9" sqref="P2:X5 P6:X9 P11:X14 P15:X18 P20:X23 P24:X27 C21:L23 C24:L27 C10:L11 C7:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -729,30 +732,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="9" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="9"/>
+      <c r="N1" s="11"/>
       <c r="O1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
       <c r="S1" s="4" t="s">
         <v>38</v>
       </c>
@@ -767,278 +770,278 @@
       <c r="X1" s="4"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="8"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="8"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9" t="s">
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="6"/>
+      <c r="K9" s="8"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="9" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="9"/>
+      <c r="N10" s="11"/>
       <c r="O10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
       <c r="S10" s="4" t="s">
         <v>38</v>
       </c>
@@ -1053,114 +1056,114 @@
       <c r="X10" s="4"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
     </row>
     <row r="15" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
@@ -1170,31 +1173,31 @@
       <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9" t="s">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
@@ -1202,115 +1205,115 @@
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="9" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="9"/>
+      <c r="N19" s="11"/>
       <c r="O19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
       <c r="S19" s="4" t="s">
         <v>38</v>
       </c>
@@ -1325,250 +1328,243 @@
       <c r="X19" s="4"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C7:L8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="C21:L23"/>
+    <mergeCell ref="A24:B27"/>
+    <mergeCell ref="C24:L27"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:X14"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="P15:X18"/>
+    <mergeCell ref="M19:N27"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="P20:X23"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P2:X5"/>
+    <mergeCell ref="P6:X9"/>
+    <mergeCell ref="P24:X27"/>
     <mergeCell ref="M1:N9"/>
     <mergeCell ref="M10:N18"/>
     <mergeCell ref="A18:B18"/>
@@ -1583,28 +1579,35 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P2:X5"/>
-    <mergeCell ref="P6:X9"/>
-    <mergeCell ref="P24:X27"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="C10:L11"/>
-    <mergeCell ref="A21:B23"/>
-    <mergeCell ref="C21:L23"/>
-    <mergeCell ref="A24:B27"/>
-    <mergeCell ref="C24:L27"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:X14"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="P15:X18"/>
-    <mergeCell ref="M19:N27"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="O20:O23"/>
-    <mergeCell ref="P20:X23"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C7:L8"/>
+    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C18:D18">

--- a/fileserv/SvtInfo.xlsx
+++ b/fileserv/SvtInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9FA31F-6D43-483E-9080-4F20EC74A2F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5916EA-EE97-4009-9FDA-EFB3A155354F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B20A98B6-2029-4FA2-9F86-4EAF312F5030}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>从者基础信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -193,6 +193,10 @@
   </si>
   <si>
     <t>数值:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特性:</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +250,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +272,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,7 +348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -354,6 +364,33 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -363,31 +400,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -720,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF4C600-2A6D-49E3-8243-4C27926A2862}">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" activeCellId="9" sqref="P2:X5 P6:X9 P11:X14 P15:X18 P20:X23 P24:X27 C21:L23 C24:L27 C10:L11 C7:L8"/>
+      <selection activeCell="C24" sqref="C24:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -732,30 +748,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="11" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="11"/>
+      <c r="N1" s="8"/>
       <c r="O1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
       <c r="S1" s="4" t="s">
         <v>38</v>
       </c>
@@ -770,278 +786,278 @@
       <c r="X1" s="4"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
       <c r="J3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="K4" s="12"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="8"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="12"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11" t="s">
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" s="12"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="11" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="8"/>
       <c r="O10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
       <c r="S10" s="4" t="s">
         <v>38</v>
       </c>
@@ -1056,264 +1072,264 @@
       <c r="X10" s="4"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
     </row>
     <row r="15" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11" t="s">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="11" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="11"/>
+      <c r="N19" s="8"/>
       <c r="O19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
       <c r="S19" s="4" t="s">
         <v>38</v>
       </c>
@@ -1328,243 +1344,305 @@
       <c r="X19" s="4"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="A21:B23"/>
-    <mergeCell ref="C21:L23"/>
-    <mergeCell ref="A24:B27"/>
-    <mergeCell ref="C24:L27"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:X14"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="P15:X18"/>
-    <mergeCell ref="M19:N27"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="O20:O23"/>
-    <mergeCell ref="P20:X23"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P2:X5"/>
-    <mergeCell ref="P6:X9"/>
-    <mergeCell ref="P24:X27"/>
+  <mergeCells count="65">
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:X29"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C7:L8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="E17:L17"/>
     <mergeCell ref="M1:N9"/>
     <mergeCell ref="M10:N18"/>
     <mergeCell ref="A18:B18"/>
@@ -1581,33 +1659,27 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="C10:L11"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P2:X5"/>
+    <mergeCell ref="P6:X9"/>
+    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="C21:L23"/>
+    <mergeCell ref="A24:B27"/>
+    <mergeCell ref="C24:L27"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:X14"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="P15:X18"/>
+    <mergeCell ref="M19:N27"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="P20:X23"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="P24:X27"/>
     <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C7:L8"/>
-    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C18:D18">

--- a/fileserv/SvtInfo.xlsx
+++ b/fileserv/SvtInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2BC22D-B032-482C-B8C4-78B4A2A17BB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8A9761-EE8F-4BD3-820C-9399C2E942E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B20A98B6-2029-4FA2-9F86-4EAF312F5030}"/>
   </bookViews>
@@ -247,7 +247,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="思源宋体"/>
       <family val="1"/>
@@ -374,6 +374,30 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -389,35 +413,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,7 +752,7 @@
   <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:L23"/>
+      <selection activeCell="C10" sqref="C10:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -761,30 +761,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="18" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="14"/>
+      <c r="N1" s="7"/>
       <c r="O1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
       <c r="S1" s="4" t="s">
         <v>33</v>
       </c>
@@ -799,278 +799,278 @@
       <c r="X1" s="4"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="10"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="10"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14" t="s">
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="10"/>
+      <c r="K9" s="11"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="18" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="14"/>
+      <c r="N10" s="7"/>
       <c r="O10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
       <c r="S10" s="4" t="s">
         <v>33</v>
       </c>
@@ -1085,264 +1085,264 @@
       <c r="X10" s="4"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
     </row>
     <row r="15" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14" t="s">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="18" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="14"/>
+      <c r="N19" s="7"/>
       <c r="O19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
       <c r="S19" s="4" t="s">
         <v>33</v>
       </c>
@@ -1357,277 +1357,326 @@
       <c r="X19" s="4"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="16"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:X29"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C7:L8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="M1:N9"/>
+    <mergeCell ref="M10:N18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:L14"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:L11"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P2:X5"/>
+    <mergeCell ref="P6:X9"/>
     <mergeCell ref="A21:B23"/>
     <mergeCell ref="C21:L23"/>
     <mergeCell ref="A24:B27"/>
@@ -1644,55 +1693,6 @@
     <mergeCell ref="O24:O27"/>
     <mergeCell ref="P24:X27"/>
     <mergeCell ref="A19:B20"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P2:X5"/>
-    <mergeCell ref="P6:X9"/>
-    <mergeCell ref="M1:N9"/>
-    <mergeCell ref="M10:N18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:L14"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:L11"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:X29"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C7:L8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="C20:L20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C18:D18">

--- a/fileserv/SvtInfo.xlsx
+++ b/fileserv/SvtInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8A9761-EE8F-4BD3-820C-9399C2E942E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E30236-27E8-4FE4-92A9-D51B514FBAE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B20A98B6-2029-4FA2-9F86-4EAF312F5030}"/>
   </bookViews>
@@ -247,7 +247,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="思源宋体"/>
       <family val="1"/>
@@ -374,6 +374,27 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -381,36 +402,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,7 +752,7 @@
   <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:L11"/>
+      <selection activeCell="P24" activeCellId="7" sqref="C21:L23 C24:L27 P2:X5 P6:X9 P11:X14 P15:X18 P20:X23 P24:X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -761,30 +761,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="8" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="7"/>
+      <c r="N1" s="15"/>
       <c r="O1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
       <c r="S1" s="4" t="s">
         <v>33</v>
       </c>
@@ -799,21 +799,21 @@
       <c r="X1" s="4"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15" t="s">
         <v>35</v>
       </c>
       <c r="P2" s="19"/>
@@ -830,24 +830,24 @@
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
       <c r="P3" s="19"/>
       <c r="Q3" s="19"/>
       <c r="R3" s="19"/>
@@ -862,26 +862,26 @@
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="11"/>
+      <c r="K4" s="10"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
@@ -896,22 +896,22 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
       <c r="R5" s="19"/>
@@ -926,26 +926,26 @@
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="11"/>
+      <c r="K6" s="10"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7" t="s">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15" t="s">
         <v>36</v>
       </c>
       <c r="P6" s="19"/>
@@ -959,23 +959,23 @@
       <c r="X6" s="19"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
       <c r="R7" s="19"/>
@@ -987,21 +987,21 @@
       <c r="X7" s="19"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
@@ -1013,29 +1013,29 @@
       <c r="X8" s="19"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="11"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
@@ -1047,30 +1047,30 @@
       <c r="X9" s="19"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="8" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="N10" s="15"/>
       <c r="O10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="4" t="s">
         <v>33</v>
       </c>
@@ -1085,21 +1085,21 @@
       <c r="X10" s="4"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15" t="s">
         <v>35</v>
       </c>
       <c r="P11" s="19"/>
@@ -1113,23 +1113,23 @@
       <c r="X11" s="19"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
@@ -1141,23 +1141,23 @@
       <c r="X12" s="19"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
@@ -1169,21 +1169,21 @@
       <c r="X13" s="19"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
@@ -1195,27 +1195,27 @@
       <c r="X14" s="19"/>
     </row>
     <row r="15" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7" t="s">
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15" t="s">
         <v>36</v>
       </c>
       <c r="P15" s="19"/>
@@ -1229,25 +1229,25 @@
       <c r="X15" s="19"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="19"/>
@@ -1259,23 +1259,23 @@
       <c r="X16" s="19"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
@@ -1287,27 +1287,27 @@
       <c r="X17" s="19"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
@@ -1319,30 +1319,30 @@
       <c r="X18" s="19"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="8" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="7"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
       <c r="S19" s="4" t="s">
         <v>33</v>
       </c>
@@ -1357,21 +1357,21 @@
       <c r="X19" s="4"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15" t="s">
         <v>35</v>
       </c>
       <c r="P20" s="19"/>
@@ -1385,10 +1385,10 @@
       <c r="X20" s="19"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -1399,9 +1399,9 @@
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
@@ -1413,8 +1413,8 @@
       <c r="X21" s="19"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -1425,9 +1425,9 @@
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
@@ -1439,8 +1439,8 @@
       <c r="X22" s="19"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -1451,9 +1451,9 @@
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
       <c r="R23" s="19"/>
@@ -1465,10 +1465,10 @@
       <c r="X23" s="19"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -1479,9 +1479,9 @@
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7" t="s">
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15" t="s">
         <v>36</v>
       </c>
       <c r="P24" s="19"/>
@@ -1495,8 +1495,8 @@
       <c r="X24" s="19"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -1507,9 +1507,9 @@
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
       <c r="R25" s="19"/>
@@ -1521,8 +1521,8 @@
       <c r="X25" s="19"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -1533,9 +1533,9 @@
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
       <c r="R26" s="19"/>
@@ -1547,8 +1547,8 @@
       <c r="X26" s="19"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -1559,9 +1559,9 @@
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
       <c r="R27" s="19"/>
@@ -1573,61 +1573,110 @@
       <c r="X27" s="19"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="C21:L23"/>
+    <mergeCell ref="A24:B27"/>
+    <mergeCell ref="C24:L27"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:X14"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="P15:X18"/>
+    <mergeCell ref="M19:N27"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="P20:X23"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="P24:X27"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P2:X5"/>
+    <mergeCell ref="P6:X9"/>
+    <mergeCell ref="M1:N9"/>
+    <mergeCell ref="M10:N18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:L14"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:L11"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="A28:B29"/>
     <mergeCell ref="C28:X29"/>
     <mergeCell ref="A12:B12"/>
@@ -1644,55 +1693,6 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="C20:L20"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="M1:N9"/>
-    <mergeCell ref="M10:N18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:L14"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:L11"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P2:X5"/>
-    <mergeCell ref="P6:X9"/>
-    <mergeCell ref="A21:B23"/>
-    <mergeCell ref="C21:L23"/>
-    <mergeCell ref="A24:B27"/>
-    <mergeCell ref="C24:L27"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:X14"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="P15:X18"/>
-    <mergeCell ref="M19:N27"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="O20:O23"/>
-    <mergeCell ref="P20:X23"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="P24:X27"/>
-    <mergeCell ref="A19:B20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C18:D18">

--- a/fileserv/SvtInfo.xlsx
+++ b/fileserv/SvtInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthur\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E30236-27E8-4FE4-92A9-D51B514FBAE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7B5E48-82A6-4816-A75F-C8652874873A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B20A98B6-2029-4FA2-9F86-4EAF312F5030}"/>
   </bookViews>
@@ -180,27 +180,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>技能1:
-(Lv.10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能2:
-(Lv.10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能3:
-(Lv.10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>职介技能(ID):</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>具体数值
 (Lv.1/OC1 - Lv.5/OC5):</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1:
+(Lv.1 - Lv.10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2:
+(Lv.1 - Lv.10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能3:
+(Lv.1 - Lv.10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -374,6 +374,36 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -388,36 +418,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,7 +752,7 @@
   <dimension ref="A1:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" activeCellId="7" sqref="C21:L23 C24:L27 P2:X5 P6:X9 P11:X14 P15:X18 P20:X23 P24:X27"/>
+      <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -761,30 +761,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="15"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="8"/>
       <c r="O1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
       <c r="S1" s="4" t="s">
         <v>33</v>
       </c>
@@ -799,278 +799,278 @@
       <c r="X1" s="4"/>
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="10"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="10"/>
+      <c r="K6" s="13"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15" t="s">
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="10"/>
+      <c r="K9" s="13"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" s="15"/>
+      <c r="N10" s="8"/>
       <c r="O10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
       <c r="S10" s="4" t="s">
         <v>33</v>
       </c>
@@ -1085,264 +1085,264 @@
       <c r="X10" s="4"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
     </row>
     <row r="15" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15" t="s">
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" s="15"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="8"/>
       <c r="O19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
       <c r="S19" s="4" t="s">
         <v>33</v>
       </c>
@@ -1357,277 +1357,326 @@
       <c r="X19" s="4"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15" t="s">
+      <c r="A24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:X29"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C7:L8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A15:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="M1:N9"/>
+    <mergeCell ref="M10:N18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:L14"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:L11"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P2:X5"/>
+    <mergeCell ref="P6:X9"/>
     <mergeCell ref="A21:B23"/>
     <mergeCell ref="C21:L23"/>
     <mergeCell ref="A24:B27"/>
@@ -1644,55 +1693,6 @@
     <mergeCell ref="O24:O27"/>
     <mergeCell ref="P24:X27"/>
     <mergeCell ref="A19:B20"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P2:X5"/>
-    <mergeCell ref="P6:X9"/>
-    <mergeCell ref="M1:N9"/>
-    <mergeCell ref="M10:N18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:L14"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:L11"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:X29"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C7:L8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="C20:L20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C18:D18">
